--- a/MODUL.xlsx
+++ b/MODUL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>STUDENT</t>
   </si>
@@ -72,13 +72,112 @@
   </si>
   <si>
     <t>PARENT</t>
+  </si>
+  <si>
+    <t>LIBRARYAN</t>
+  </si>
+  <si>
+    <t>TAMBAH BUKU</t>
+  </si>
+  <si>
+    <t>EDIT BUKU</t>
+  </si>
+  <si>
+    <t>REQUEST BUKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPORT </t>
+  </si>
+  <si>
+    <t>ACCOUNTANT</t>
+  </si>
+  <si>
+    <t>LOG TRANSAKSI</t>
+  </si>
+  <si>
+    <t>PEMBAYARAN CRUD</t>
+  </si>
+  <si>
+    <t>TEACHER</t>
+  </si>
+  <si>
+    <t>INPUT HUKUMAN SISWA</t>
+  </si>
+  <si>
+    <t>INPUT NILAI PER MAPEL</t>
+  </si>
+  <si>
+    <t>MEMBUAT HOMEWORK E CLASS</t>
+  </si>
+  <si>
+    <t>MEMBUAT IJIN TIDAK MASUK (KE KEPSEK)</t>
+  </si>
+  <si>
+    <t>MENDAPATKAN NOTIF VIA SMS EMAIL</t>
+  </si>
+  <si>
+    <t>MELIHAT KALENDE PENDIDIKAN</t>
+  </si>
+  <si>
+    <t>MELIHAT JADWAL SENDIRI</t>
+  </si>
+  <si>
+    <t>MELIHAT BUKU DI PERPUS</t>
+  </si>
+  <si>
+    <t>WEBSITE</t>
+  </si>
+  <si>
+    <t>https://codecanyon.net/item/eduappgt-pro-school-system/17965804</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>class routine anaknya</t>
+  </si>
+  <si>
+    <t>report attendance anaknya</t>
+  </si>
+  <si>
+    <t>melihat buku di perpustakaan</t>
+  </si>
+  <si>
+    <t>melihat nilai anaknya</t>
+  </si>
+  <si>
+    <t>melihat subjek dan guru yang mengajar</t>
+  </si>
+  <si>
+    <t>membuat ijin anaknya</t>
+  </si>
+  <si>
+    <t>melihat hukuman yang diterima anaknya</t>
+  </si>
+  <si>
+    <t>melihat berita</t>
+  </si>
+  <si>
+    <t>melihat event di calendar</t>
+  </si>
+  <si>
+    <t>payment pembayaran yang harus dibayar</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>permisions absensi guru dan siswa</t>
+  </si>
+  <si>
+    <t>CURD(jadwal, kelas, guru, siswa, mapel, kaldik, membuat voting, membuat posting, school bus, Event,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +200,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,25 +234,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,139 +546,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="66.42578125" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="5" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8"/>
+    </row>
     <row r="17" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -558,8 +824,12 @@
     <row r="23" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>